--- a/MA115-Lab2.xlsx
+++ b/MA115-Lab2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\zorak2\users$\ddarmon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fvalique/Library/CloudStorage/OneDrive-MonmouthUniversity/teaching/S24-MA115/labs/lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_FE6B1DEAF2358A4E32A87E9677AA3910B7CB7C85" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{876B99A6-FC3F-D142-AE1A-0FD4FFE3D9E7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entire Data Set" sheetId="1" r:id="rId1"/>
@@ -21,21 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>Year Since 0 CE</t>
   </si>
   <si>
     <t>Human Population Estimate (Millions of People)</t>
   </si>
-  <si>
-    <t>log2(Population)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -588,7 +586,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2079,7 +2076,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2359,33 +2362,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C199"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-10000</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-10000</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-10000</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-10000</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-10000</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-10000</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-10000</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-9000</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>4.7717549999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-8000</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-8000</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-8000</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-8000</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-8000</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>6.8762999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-7000</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>10.123016</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-6000</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>15.343109</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-5000</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-5000</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>23.990147</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-5000</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-5000</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-5000</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-4000</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-4000</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>37.980147000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-4000</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-4000</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-3000</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-3000</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>60.001421000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-3000</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-2000</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-2000</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>96.532815999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-2000</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-2000</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-1000</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-1000</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>154.04105300000001</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-1000</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>230.82</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>100</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>200</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>200</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>300</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>400</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>500</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>600</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>600</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>600</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>600</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>700</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>800</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>900</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1000</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1000</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>280.2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1000</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1000</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1000</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1000</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1000</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1000</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>268.27300000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1000</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1000</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1100</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1100</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1200</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1200</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1200</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1200</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1300</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1300</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1300</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1400</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1400</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1400</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1500</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1500</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>427.8</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1500</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1500</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1500</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1500</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1500</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1500</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>437.81799999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1500</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1600</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1600</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1600</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1600</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1600</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1700</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1700</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1700</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>640.79999999999995</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1700</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1700</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1700</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1700</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1700</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1700</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>603.41</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1700</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1700</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1700</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1700</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1750</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1750</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1750</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1750</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1750</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1750</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1750</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1750</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1750</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1750</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1750</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1750</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1750</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1750</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1800</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1800</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1800</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1800</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1800</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1800</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1800</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1800</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1800</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1800</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1850</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1850</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1850</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1850</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1850</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1850</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1850</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1850</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1850</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1850</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1900</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1900</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1900</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1900</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1900</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1900</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1900</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1900</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1900</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1900</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1900</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1900</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1900</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1900</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1900</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1910</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1910</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1920</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1920</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1920</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1920</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1930</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1930</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1940</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1940</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1950</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1950</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1950</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1950</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1950</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1950</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1950</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1950</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1950</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1950</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1960</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1960</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1960</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1960</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>3032</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1970</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1970</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1970</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>3697</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1970</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1970</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>3697</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1980</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>4414</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1980</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>4430</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1980</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>4430</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1980</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>4447</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1980</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>4451</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1990</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>5255</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1990</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1990</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>5295</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1990</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>5295</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2000</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>6055</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2000</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>6057</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2000</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>6124</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2015</v>
       </c>
@@ -3976,33 +3976,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-10000</v>
       </c>
@@ -4010,7 +4007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-10000</v>
       </c>
@@ -4018,7 +4015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-10000</v>
       </c>
@@ -4026,7 +4023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-10000</v>
       </c>
@@ -4034,7 +4031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-10000</v>
       </c>
@@ -4042,7 +4039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-10000</v>
       </c>
@@ -4050,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-10000</v>
       </c>
@@ -4058,7 +4055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-9000</v>
       </c>
@@ -4066,7 +4063,7 @@
         <v>4.7717549999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-8000</v>
       </c>
@@ -4074,7 +4071,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-8000</v>
       </c>
@@ -4082,7 +4079,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-8000</v>
       </c>
@@ -4090,7 +4087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-8000</v>
       </c>
@@ -4098,7 +4095,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-8000</v>
       </c>
@@ -4106,7 +4103,7 @@
         <v>6.8762999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-7000</v>
       </c>
@@ -4114,7 +4111,7 @@
         <v>10.123016</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-6000</v>
       </c>
@@ -4122,7 +4119,7 @@
         <v>15.343109</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-5000</v>
       </c>
@@ -4130,7 +4127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-5000</v>
       </c>
@@ -4138,7 +4135,7 @@
         <v>23.990147</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-5000</v>
       </c>
@@ -4146,7 +4143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-5000</v>
       </c>
@@ -4154,7 +4151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-5000</v>
       </c>
@@ -4162,7 +4159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-4000</v>
       </c>
@@ -4170,7 +4167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-4000</v>
       </c>
@@ -4178,7 +4175,7 @@
         <v>37.980147000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-4000</v>
       </c>
@@ -4186,7 +4183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-4000</v>
       </c>
@@ -4194,7 +4191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-3000</v>
       </c>
@@ -4202,7 +4199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-3000</v>
       </c>
@@ -4210,7 +4207,7 @@
         <v>60.001421000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-3000</v>
       </c>
@@ -4218,7 +4215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-2000</v>
       </c>
@@ -4226,7 +4223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-2000</v>
       </c>
@@ -4234,7 +4231,7 @@
         <v>96.532815999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-2000</v>
       </c>
@@ -4242,7 +4239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-2000</v>
       </c>
@@ -4250,7 +4247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-1000</v>
       </c>
@@ -4258,7 +4255,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-1000</v>
       </c>
@@ -4266,7 +4263,7 @@
         <v>154.04105300000001</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-1000</v>
       </c>
@@ -4274,7 +4271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -4282,7 +4279,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -4290,7 +4287,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -4298,7 +4295,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -4306,7 +4303,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -4314,7 +4311,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -4322,7 +4319,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -4330,7 +4327,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -4338,7 +4335,7 @@
         <v>230.82</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -4346,7 +4343,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -4354,7 +4351,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -4362,7 +4359,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>100</v>
       </c>
@@ -4370,7 +4367,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>200</v>
       </c>
@@ -4378,7 +4375,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>200</v>
       </c>
@@ -4386,7 +4383,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>300</v>
       </c>
@@ -4394,7 +4391,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>400</v>
       </c>
@@ -4402,7 +4399,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>500</v>
       </c>
@@ -4410,7 +4407,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>600</v>
       </c>
@@ -4418,7 +4415,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>600</v>
       </c>
@@ -4426,7 +4423,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>600</v>
       </c>
@@ -4434,7 +4431,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>600</v>
       </c>
@@ -4442,7 +4439,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>700</v>
       </c>
@@ -4450,7 +4447,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>800</v>
       </c>
@@ -4458,7 +4455,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>900</v>
       </c>
@@ -4466,7 +4463,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1000</v>
       </c>
@@ -4474,7 +4471,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1000</v>
       </c>
@@ -4482,7 +4479,7 @@
         <v>280.2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1000</v>
       </c>
@@ -4490,7 +4487,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1000</v>
       </c>
@@ -4498,7 +4495,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1000</v>
       </c>
@@ -4506,7 +4503,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1000</v>
       </c>
@@ -4514,7 +4511,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1000</v>
       </c>
@@ -4522,7 +4519,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1000</v>
       </c>
@@ -4530,7 +4527,7 @@
         <v>268.27300000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1000</v>
       </c>
@@ -4538,7 +4535,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1000</v>
       </c>
@@ -4546,7 +4543,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1100</v>
       </c>
@@ -4554,7 +4551,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1100</v>
       </c>
@@ -4562,7 +4559,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1200</v>
       </c>
@@ -4570,7 +4567,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1200</v>
       </c>
@@ -4578,7 +4575,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1200</v>
       </c>
@@ -4586,7 +4583,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1200</v>
       </c>
@@ -4594,7 +4591,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1300</v>
       </c>
@@ -4602,7 +4599,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1300</v>
       </c>
@@ -4610,7 +4607,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1300</v>
       </c>
@@ -4618,7 +4615,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1400</v>
       </c>
@@ -4626,7 +4623,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1400</v>
       </c>
@@ -4634,7 +4631,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1400</v>
       </c>
@@ -4642,7 +4639,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1500</v>
       </c>
@@ -4650,7 +4647,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1500</v>
       </c>
@@ -4658,7 +4655,7 @@
         <v>427.8</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1500</v>
       </c>
@@ -4666,7 +4663,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1500</v>
       </c>
@@ -4674,7 +4671,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1500</v>
       </c>
@@ -4682,7 +4679,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1500</v>
       </c>
@@ -4690,7 +4687,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1500</v>
       </c>
@@ -4698,7 +4695,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1500</v>
       </c>
@@ -4706,7 +4703,7 @@
         <v>437.81799999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1500</v>
       </c>
@@ -4714,7 +4711,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1600</v>
       </c>
@@ -4722,7 +4719,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1600</v>
       </c>
@@ -4730,7 +4727,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1600</v>
       </c>
@@ -4738,7 +4735,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1600</v>
       </c>
@@ -4746,7 +4743,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1600</v>
       </c>
@@ -4754,7 +4751,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1700</v>
       </c>
@@ -4762,7 +4759,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1700</v>
       </c>
@@ -4770,7 +4767,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1700</v>
       </c>
@@ -4778,7 +4775,7 @@
         <v>640.79999999999995</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1700</v>
       </c>
@@ -4786,7 +4783,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1700</v>
       </c>
@@ -4794,7 +4791,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1700</v>
       </c>
@@ -4802,7 +4799,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1700</v>
       </c>
@@ -4810,7 +4807,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1700</v>
       </c>
@@ -4818,7 +4815,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1700</v>
       </c>
@@ -4826,7 +4823,7 @@
         <v>603.41</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1700</v>
       </c>
@@ -4834,7 +4831,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1700</v>
       </c>
@@ -4842,7 +4839,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1700</v>
       </c>
@@ -4850,7 +4847,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1700</v>
       </c>
@@ -4858,7 +4855,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1750</v>
       </c>
@@ -4866,7 +4863,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1750</v>
       </c>
@@ -4874,7 +4871,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1750</v>
       </c>
@@ -4882,7 +4879,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1750</v>
       </c>
@@ -4890,7 +4887,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1750</v>
       </c>
@@ -4898,7 +4895,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1750</v>
       </c>
@@ -4906,7 +4903,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1750</v>
       </c>
@@ -4914,7 +4911,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1750</v>
       </c>
@@ -4922,7 +4919,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1750</v>
       </c>
@@ -4930,7 +4927,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1750</v>
       </c>
@@ -4938,7 +4935,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1750</v>
       </c>
@@ -4946,7 +4943,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1750</v>
       </c>
@@ -4954,7 +4951,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1750</v>
       </c>
@@ -4962,7 +4959,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1750</v>
       </c>
@@ -4976,32 +4973,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1800</v>
       </c>
@@ -5009,7 +5003,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1800</v>
       </c>
@@ -5017,7 +5011,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1800</v>
       </c>
@@ -5025,7 +5019,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1800</v>
       </c>
@@ -5033,7 +5027,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1800</v>
       </c>
@@ -5041,7 +5035,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1800</v>
       </c>
@@ -5049,7 +5043,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1800</v>
       </c>
@@ -5057,7 +5051,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1800</v>
       </c>
@@ -5065,7 +5059,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1800</v>
       </c>
@@ -5073,7 +5067,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1800</v>
       </c>
@@ -5081,7 +5075,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1850</v>
       </c>
@@ -5089,7 +5083,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1850</v>
       </c>
@@ -5097,7 +5091,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1850</v>
       </c>
@@ -5105,7 +5099,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1850</v>
       </c>
@@ -5113,7 +5107,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1850</v>
       </c>
@@ -5121,7 +5115,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1850</v>
       </c>
@@ -5129,7 +5123,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1850</v>
       </c>
@@ -5137,7 +5131,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1850</v>
       </c>
@@ -5145,7 +5139,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1850</v>
       </c>
@@ -5153,7 +5147,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1850</v>
       </c>
@@ -5161,7 +5155,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1900</v>
       </c>
@@ -5169,7 +5163,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1900</v>
       </c>
@@ -5177,7 +5171,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1900</v>
       </c>
@@ -5185,7 +5179,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1900</v>
       </c>
@@ -5193,7 +5187,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1900</v>
       </c>
@@ -5201,7 +5195,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1900</v>
       </c>
@@ -5209,7 +5203,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1900</v>
       </c>
@@ -5217,7 +5211,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1900</v>
       </c>
@@ -5225,7 +5219,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1900</v>
       </c>
@@ -5233,7 +5227,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1900</v>
       </c>
@@ -5241,7 +5235,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1900</v>
       </c>
@@ -5249,7 +5243,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1900</v>
       </c>
@@ -5257,7 +5251,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1900</v>
       </c>
@@ -5265,7 +5259,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1900</v>
       </c>
@@ -5273,7 +5267,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1900</v>
       </c>
@@ -5281,7 +5275,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1910</v>
       </c>
@@ -5289,7 +5283,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1910</v>
       </c>
@@ -5297,7 +5291,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1920</v>
       </c>
@@ -5305,7 +5299,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1920</v>
       </c>
@@ -5313,7 +5307,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1920</v>
       </c>
@@ -5321,7 +5315,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1920</v>
       </c>
@@ -5329,7 +5323,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1930</v>
       </c>
@@ -5337,7 +5331,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1930</v>
       </c>
@@ -5345,7 +5339,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1940</v>
       </c>
@@ -5353,7 +5347,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1940</v>
       </c>
@@ -5361,7 +5355,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1950</v>
       </c>
@@ -5369,7 +5363,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1950</v>
       </c>
@@ -5377,7 +5371,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1950</v>
       </c>
@@ -5385,7 +5379,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1950</v>
       </c>
@@ -5393,7 +5387,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1950</v>
       </c>
@@ -5401,7 +5395,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1950</v>
       </c>
@@ -5409,7 +5403,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1950</v>
       </c>
@@ -5417,7 +5411,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1950</v>
       </c>
@@ -5425,7 +5419,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1950</v>
       </c>
@@ -5433,7 +5427,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1950</v>
       </c>
@@ -5441,7 +5435,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1960</v>
       </c>
@@ -5449,7 +5443,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1960</v>
       </c>
@@ -5457,7 +5451,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1960</v>
       </c>
@@ -5465,7 +5459,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1960</v>
       </c>
@@ -5473,7 +5467,7 @@
         <v>3032</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1970</v>
       </c>
@@ -5481,7 +5475,7 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1970</v>
       </c>
@@ -5489,7 +5483,7 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1970</v>
       </c>
@@ -5497,7 +5491,7 @@
         <v>3697</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1970</v>
       </c>
@@ -5505,7 +5499,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1970</v>
       </c>
@@ -5513,7 +5507,7 @@
         <v>3697</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1980</v>
       </c>
@@ -5521,7 +5515,7 @@
         <v>4414</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1980</v>
       </c>
@@ -5529,7 +5523,7 @@
         <v>4430</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1980</v>
       </c>
@@ -5537,7 +5531,7 @@
         <v>4430</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1980</v>
       </c>
@@ -5545,7 +5539,7 @@
         <v>4447</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1980</v>
       </c>
@@ -5553,7 +5547,7 @@
         <v>4451</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1990</v>
       </c>
@@ -5561,7 +5555,7 @@
         <v>5255</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1990</v>
       </c>
@@ -5569,7 +5563,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1990</v>
       </c>
@@ -5577,7 +5571,7 @@
         <v>5295</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1990</v>
       </c>
@@ -5585,7 +5579,7 @@
         <v>5295</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2000</v>
       </c>
@@ -5593,7 +5587,7 @@
         <v>6055</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2000</v>
       </c>
@@ -5601,7 +5595,7 @@
         <v>6057</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2000</v>
       </c>
@@ -5609,7 +5603,7 @@
         <v>6124</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2015</v>
       </c>
